--- a/kovetelmenyek.xlsx
+++ b/kovetelmenyek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Desktop\4th-semester\webterv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C44D1EA-0405-4320-A436-8AA535F1ED4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB601D8-8852-4D9B-BE93-C7E5ECD212AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>Részfeladat(ok)</t>
   </si>
@@ -270,9 +270,6 @@
     <t>etlap.html</t>
   </si>
   <si>
-    <t>127, 180</t>
-  </si>
-  <si>
     <t>292, 292, 186, 186</t>
   </si>
   <si>
@@ -309,10 +306,60 @@
     <t>17, 80</t>
   </si>
   <si>
-    <t>utólag vettük észre, hogy milyen animációra gondolnak, máshogy valósítottuk meg az animációt, látható a style.css -&gt;  272. sorban, index.html -&gt; 140. sorban</t>
-  </si>
-  <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Nem szabványosak az oldalak (Error: The character encoding was not declared. Proceeding using windows-1252.)</t>
+  </si>
+  <si>
+    <t>headers nincs!</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt; hiányzik</t>
+  </si>
+  <si>
+    <t>csak 4 féle űrlapelem van, 6 kellene; nincs alapállapot gomb</t>
+  </si>
+  <si>
+    <t>ez egy táblázat</t>
+  </si>
+  <si>
+    <t>kész</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>93</t>
+    </r>
+  </si>
+  <si>
+    <t>ez miért maradt ki a pontozásból?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">127, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>186</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -322,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -395,8 +442,24 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +496,14 @@
         <bgColor rgb="FFFCFCFC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -522,35 +591,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -562,15 +602,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -584,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,14 +683,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,6 +704,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -693,54 +761,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,8 +999,8 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48:K50"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -975,17 +1012,18 @@
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
     <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="110" style="42" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="41.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1001,7 +1039,6 @@
       <c r="J1" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="2" t="s">
         <v>2</v>
@@ -1011,27 +1048,29 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="12.75">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5">
         <v>2</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="4"/>
+      <c r="H2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="42">
+        <v>2</v>
+      </c>
       <c r="L2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1043,25 +1082,29 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.75">
-      <c r="A3" s="28"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="6"/>
       <c r="F3" s="5">
         <v>10</v>
       </c>
       <c r="G3" s="10"/>
-      <c r="H3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="4"/>
+      <c r="H3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>92</v>
+      </c>
       <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
@@ -1073,14 +1116,14 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6"/>
@@ -1088,16 +1131,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="H4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="36">
         <v>30</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="42">
+        <v>1</v>
+      </c>
       <c r="L4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1107,14 +1152,14 @@
       </c>
       <c r="N4" s="13">
         <f>SUMIFS(F14:F50,H14:H50,"&lt;&gt;")</f>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="37" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="33" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
@@ -1124,14 +1169,16 @@
       <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="34" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="36">
         <v>33</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="42">
+        <v>1</v>
+      </c>
       <c r="L5" s="11" t="s">
         <v>14</v>
       </c>
@@ -1143,10 +1190,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.75">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="37" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6"/>
@@ -1154,16 +1201,18 @@
         <v>4</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="46" t="s">
+      <c r="H6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="42">
+        <v>4</v>
+      </c>
       <c r="L6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1173,18 +1222,18 @@
       </c>
       <c r="N6" s="13">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6"/>
@@ -1194,14 +1243,16 @@
       <c r="G7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="28"/>
+      <c r="I7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="36">
         <v>55</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="42">
+        <v>3</v>
+      </c>
       <c r="L7" s="16" t="s">
         <v>19</v>
       </c>
@@ -1213,10 +1264,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.75">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="37" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="33" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="6"/>
@@ -1226,23 +1277,25 @@
       <c r="G8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="34" t="s">
+      <c r="H8" s="28"/>
+      <c r="I8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="36">
         <v>124</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="42" t="s">
+        <v>93</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="12.75">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="37" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6"/>
@@ -1252,23 +1305,25 @@
       <c r="G9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="46" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="45">
-        <v>50</v>
-      </c>
-      <c r="K9" s="4"/>
+      <c r="J9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>95</v>
+      </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="37" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="33" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="6"/>
@@ -1278,27 +1333,29 @@
       <c r="G10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="34" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="42">
+        <v>1</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="25.5">
-      <c r="A11" s="28"/>
-      <c r="B11" s="27">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49">
         <v>5</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="6"/>
@@ -1308,23 +1365,25 @@
       <c r="G11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="46" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="42">
+        <v>4</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="12.75">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="37" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="33" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="6"/>
@@ -1334,23 +1393,25 @@
       <c r="G12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="46" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="36">
         <v>320</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="42">
+        <v>2</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="25.5">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="47" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="18"/>
@@ -1358,61 +1419,67 @@
         <v>5</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="46" t="s">
+      <c r="H13" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="44">
+        <v>116</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>94</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="32" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="46" t="s">
+      <c r="H14" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="36">
         <v>58</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="42">
+        <v>2</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="12.75">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30">
+      <c r="A15" s="48"/>
+      <c r="B15" s="47">
         <v>5</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -1424,23 +1491,25 @@
       <c r="G15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="46" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="42">
+        <v>2</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="12.75">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="20" t="s">
         <v>32</v>
       </c>
@@ -1448,19 +1517,18 @@
         <v>2</v>
       </c>
       <c r="G16" s="10"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="4"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="36"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="12.75">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="20" t="s">
         <v>33</v>
       </c>
@@ -1468,19 +1536,18 @@
         <v>2</v>
       </c>
       <c r="G17" s="10"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="4"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="36"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="12.75">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="20" t="s">
         <v>34</v>
       </c>
@@ -1488,25 +1555,27 @@
         <v>1</v>
       </c>
       <c r="G18" s="10"/>
-      <c r="H18" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="46" t="s">
+      <c r="H18" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="42">
+        <v>1</v>
+      </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="12.75">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="20" t="s">
         <v>35</v>
       </c>
@@ -1514,19 +1583,18 @@
         <v>1</v>
       </c>
       <c r="G19" s="10"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="4"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="36"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="12.75">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="20" t="s">
         <v>36</v>
       </c>
@@ -1534,19 +1602,18 @@
         <v>1</v>
       </c>
       <c r="G20" s="10"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="4"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="36"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="12.75">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="39"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="20" t="s">
         <v>37</v>
       </c>
@@ -1554,25 +1621,27 @@
         <v>1</v>
       </c>
       <c r="G21" s="10"/>
-      <c r="H21" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="46" t="s">
+      <c r="H21" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="36">
         <v>108</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="42">
+        <v>1</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="12.75">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="20" t="s">
         <v>38</v>
       </c>
@@ -1580,19 +1649,18 @@
         <v>5</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="4"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="36"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="12.75">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="20" t="s">
         <v>39</v>
       </c>
@@ -1602,23 +1670,25 @@
       <c r="G23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="46" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="4"/>
+      <c r="J23" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="42">
+        <v>4</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" ht="12.75">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="20" t="s">
         <v>40</v>
       </c>
@@ -1626,25 +1696,27 @@
         <v>2</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="46" t="s">
+      <c r="H24" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="4"/>
+      <c r="J24" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="42">
+        <v>2</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="12.75">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="44" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -1654,19 +1726,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="4"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="36"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" ht="12.75">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="20" t="s">
         <v>43</v>
       </c>
@@ -1676,23 +1747,25 @@
       <c r="G26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="46" t="s">
+      <c r="H26" s="28"/>
+      <c r="I26" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="4"/>
+      <c r="J26" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="42">
+        <v>1</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" ht="12.75">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="20" t="s">
         <v>44</v>
       </c>
@@ -1700,19 +1773,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="4"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="36"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" ht="12.75">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="20" t="s">
         <v>45</v>
       </c>
@@ -1722,23 +1794,25 @@
       <c r="G28" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="46" t="s">
+      <c r="H28" s="28"/>
+      <c r="I28" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="36">
         <v>210</v>
       </c>
-      <c r="K28" s="4"/>
+      <c r="K28" s="42">
+        <v>1</v>
+      </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" ht="12.75">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="20" t="s">
         <v>46</v>
       </c>
@@ -1748,23 +1822,25 @@
       <c r="G29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="46" t="s">
+      <c r="H29" s="28"/>
+      <c r="I29" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="4"/>
+      <c r="J29" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="42">
+        <v>1</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" ht="12.75">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="20" t="s">
         <v>47</v>
       </c>
@@ -1774,23 +1850,25 @@
       <c r="G30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="46" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="K30" s="4"/>
+      <c r="J30" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="42">
+        <v>1</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" ht="12.75">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="20" t="s">
         <v>48</v>
       </c>
@@ -1800,24 +1878,28 @@
       <c r="G31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="46" t="s">
+      <c r="H31" s="28"/>
+      <c r="I31" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="36">
         <v>122</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" ht="30.75" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="36" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="32" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="1">
@@ -1826,23 +1908,25 @@
       <c r="G32" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="46" t="s">
+      <c r="H32" s="29"/>
+      <c r="I32" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="K32" s="4"/>
+      <c r="J32" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="42">
+        <v>4</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" ht="12.75">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="20" t="s">
         <v>50</v>
       </c>
@@ -1852,24 +1936,26 @@
       <c r="G33" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="46" t="s">
+      <c r="H33" s="28"/>
+      <c r="I33" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="K33" s="4"/>
+      <c r="J33" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" s="42">
+        <v>1</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" ht="12.75">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="20" t="s">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="39" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="1">
@@ -1878,23 +1964,22 @@
       <c r="G34" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="46" t="s">
+      <c r="H34" s="28"/>
+      <c r="I34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J34" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="4"/>
+      <c r="J34" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
     <row r="35" spans="1:14" ht="12.75">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="20" t="s">
         <v>52</v>
       </c>
@@ -1902,19 +1987,18 @@
         <v>1</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="4"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="36"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:14" ht="12.75">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="20" t="s">
         <v>53</v>
       </c>
@@ -1924,49 +2008,44 @@
       <c r="G36" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="46" t="s">
+      <c r="H36" s="28"/>
+      <c r="I36" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="36">
         <v>395</v>
       </c>
-      <c r="K36" s="4"/>
+      <c r="K36" s="42">
+        <v>2</v>
+      </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
     <row r="37" spans="1:14" ht="12.75">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="52"/>
       <c r="E37" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="45">
-        <v>90</v>
-      </c>
-      <c r="K37" s="4"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="36"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
     <row r="38" spans="1:14" ht="12.75">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="20" t="s">
         <v>55</v>
       </c>
@@ -1976,23 +2055,25 @@
       <c r="G38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="46" t="s">
+      <c r="H38" s="28"/>
+      <c r="I38" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="4"/>
+      <c r="J38" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="42">
+        <v>1</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="1:14" ht="12.75">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="39"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="52"/>
       <c r="E39" s="20" t="s">
         <v>56</v>
       </c>
@@ -2002,41 +2083,42 @@
       <c r="G39" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="46" t="s">
+      <c r="H39" s="28"/>
+      <c r="I39" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J39" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="K39" s="4"/>
+      <c r="J39" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="42">
+        <v>2</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
     <row r="40" spans="1:14" ht="12.75">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="50" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="39" t="s">
         <v>67</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="10"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="4"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="36"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
     <row r="41" spans="1:14" ht="12.75">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="44" t="s">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="60" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="20" t="s">
@@ -2046,45 +2128,56 @@
         <v>8</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="46" t="s">
+      <c r="H41" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J41" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="J41" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" ht="12.75">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="39"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="52"/>
       <c r="E42" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="G42" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" s="36">
+        <v>252</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:14" ht="12.75">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="39"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="52"/>
       <c r="E43" s="20" t="s">
         <v>60</v>
       </c>
@@ -2092,19 +2185,18 @@
         <v>2</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="4"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="36"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
     <row r="44" spans="1:14" ht="12.75">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="39"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="20" t="s">
         <v>61</v>
       </c>
@@ -2112,25 +2204,27 @@
         <v>2</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="46" t="s">
+      <c r="H44" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="K44" s="4"/>
+      <c r="J44" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44" s="42">
+        <v>2</v>
+      </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:14" ht="12.75">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="39"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="20" t="s">
         <v>62</v>
       </c>
@@ -2138,25 +2232,27 @@
         <v>2</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="46" t="s">
+      <c r="H45" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J45" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="4"/>
+      <c r="J45" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45" s="42">
+        <v>2</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:14" ht="12.75">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="39"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="20" t="s">
         <v>63</v>
       </c>
@@ -2164,19 +2260,27 @@
         <v>2</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="4"/>
+      <c r="H46" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" s="36">
+        <v>272</v>
+      </c>
+      <c r="K46" s="42">
+        <v>2</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
     <row r="47" spans="1:14" ht="12.75">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="39"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="20" t="s">
         <v>64</v>
       </c>
@@ -2184,19 +2288,18 @@
         <v>8</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="4"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="40"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" ht="12.75">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="39"/>
+    <row r="48" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="20" t="s">
         <v>65</v>
       </c>
@@ -2204,25 +2307,18 @@
         <v>4</v>
       </c>
       <c r="G48" s="10"/>
-      <c r="H48" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="K48" s="53"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="57"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
     <row r="49" spans="1:14" ht="12.75">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="39"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="52"/>
       <c r="E49" s="20" t="s">
         <v>66</v>
       </c>
@@ -2230,33 +2326,31 @@
         <v>2</v>
       </c>
       <c r="G49" s="10"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="55"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="58"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
     <row r="50" spans="1:14" ht="12.75">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="39"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="52"/>
       <c r="E50" s="20" t="s">
         <v>67</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="10"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="57"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="59"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" ht="12.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2267,17 +2361,18 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="22"/>
-      <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J48:K50"/>
+    <mergeCell ref="J48:J50"/>
     <mergeCell ref="D15:D24"/>
     <mergeCell ref="D25:D40"/>
     <mergeCell ref="D41:D50"/>
+    <mergeCell ref="A14:A50"/>
+    <mergeCell ref="B15:B50"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="C2:D2"/>
@@ -2288,10 +2383,9 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A14:A50"/>
-    <mergeCell ref="B15:B50"/>
     <mergeCell ref="C15:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kovetelmenyek.xlsx
+++ b/kovetelmenyek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Desktop\4th-semester\webterv\webterv-beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB601D8-8852-4D9B-BE93-C7E5ECD212AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F851C78C-CEA5-4AB5-8B13-E231050024BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
   <si>
     <t>Részfeladat(ok)</t>
   </si>
@@ -249,98 +249,25 @@
     <t>style.css</t>
   </si>
   <si>
-    <t>10, 167</t>
-  </si>
-  <si>
     <t>login.html</t>
   </si>
   <si>
-    <t>23, 51</t>
-  </si>
-  <si>
-    <t>227, 342, 113</t>
-  </si>
-  <si>
     <t>260, 270</t>
   </si>
   <si>
-    <t>58, 73</t>
-  </si>
-  <si>
-    <t>etlap.html</t>
-  </si>
-  <si>
-    <t>292, 292, 186, 186</t>
-  </si>
-  <si>
-    <t>122, 16</t>
-  </si>
-  <si>
     <t>2, 14</t>
   </si>
   <si>
-    <t>347, 343</t>
-  </si>
-  <si>
-    <t>304, 108</t>
-  </si>
-  <si>
-    <t>128, 7, 403, 132</t>
-  </si>
-  <si>
     <t>134, 154, 133</t>
   </si>
   <si>
-    <t>422, 440</t>
-  </si>
-  <si>
-    <t>421, 119, 6</t>
-  </si>
-  <si>
-    <t>439, 418, 426, 314</t>
-  </si>
-  <si>
-    <t>437, 51</t>
-  </si>
-  <si>
     <t>17, 80</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Nem szabványosak az oldalak (Error: The character encoding was not declared. Proceeding using windows-1252.)</t>
   </si>
   <si>
-    <t>headers nincs!</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt; hiányzik</t>
-  </si>
-  <si>
-    <t>csak 4 féle űrlapelem van, 6 kellene; nincs alapállapot gomb</t>
-  </si>
-  <si>
-    <t>ez egy táblázat</t>
-  </si>
-  <si>
     <t>kész</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">50, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>93</t>
-    </r>
   </si>
   <si>
     <t>ez miért maradt ki a pontozásból?</t>
@@ -361,6 +288,186 @@
       <t>186</t>
     </r>
   </si>
+  <si>
+    <t>rolunk.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">headers nincs! // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>kijavítva mindenhol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>97</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ez egy táblázat // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>kijavítva a megemlített helyen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>hozzáadtam több beviteli mezőt labellel és mezőcsoportosítást</t>
+    </r>
+  </si>
+  <si>
+    <t>50, 95</t>
+  </si>
+  <si>
+    <t>10, 166</t>
+  </si>
+  <si>
+    <t>25, 53</t>
+  </si>
+  <si>
+    <t>227, 344, 113</t>
+  </si>
+  <si>
+    <t>60, 75</t>
+  </si>
+  <si>
+    <t>etlap.html / itallap.html</t>
+  </si>
+  <si>
+    <t>361, 361, 157, 157</t>
+  </si>
+  <si>
+    <t>124, 18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a javított elemek sorszámát </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>piros</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>sal jelöltük</t>
+    </r>
+  </si>
+  <si>
+    <t>style.css / login.html</t>
+  </si>
+  <si>
+    <t>211 / 50</t>
+  </si>
+  <si>
+    <t>305, 108</t>
+  </si>
+  <si>
+    <t>348, 344</t>
+  </si>
+  <si>
+    <t>128, 7, 404, 132</t>
+  </si>
+  <si>
+    <t>423, 441</t>
+  </si>
+  <si>
+    <t>422, 6</t>
+  </si>
+  <si>
+    <t>440, 419, 427, 315</t>
+  </si>
+  <si>
+    <t>255, 264</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;strong&gt; hiányzik // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>kijavítva a megemlített helyen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">csak 4 féle űrlapelem van, 6 kellene; nincs alapállapot gomb // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>kijavítva a megemlített helyen</t>
+    </r>
+  </si>
+  <si>
+    <t>438, 51, 58</t>
+  </si>
 </sst>
 </file>
 
@@ -369,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -453,6 +560,22 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -615,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,22 +884,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -997,10 +1123,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1100,10 +1226,10 @@
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="44" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>9</v>
@@ -1138,7 +1264,7 @@
         <v>70</v>
       </c>
       <c r="J4" s="36">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="42">
         <v>1</v>
@@ -1174,7 +1300,7 @@
         <v>70</v>
       </c>
       <c r="J5" s="36">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5" s="42">
         <v>1</v>
@@ -1208,7 +1334,7 @@
         <v>71</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="K6" s="42">
         <v>4</v>
@@ -1248,7 +1374,7 @@
         <v>70</v>
       </c>
       <c r="J7" s="36">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K7" s="42">
         <v>3</v>
@@ -1282,10 +1408,10 @@
         <v>70</v>
       </c>
       <c r="J8" s="36">
-        <v>124</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>93</v>
+        <v>126</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1307,13 +1433,13 @@
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K9" s="43" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1338,7 +1464,7 @@
         <v>70</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K10" s="42">
         <v>1</v>
@@ -1370,7 +1496,7 @@
         <v>71</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="K11" s="42">
         <v>4</v>
@@ -1398,7 +1524,7 @@
         <v>71</v>
       </c>
       <c r="J12" s="36">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K12" s="42">
         <v>2</v>
@@ -1422,14 +1548,14 @@
       <c r="H13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="37" t="s">
-        <v>71</v>
+      <c r="I13" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="J13" s="44">
         <v>116</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1459,13 +1585,13 @@
         <v>6</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="36">
-        <v>58</v>
-      </c>
-      <c r="K14" s="42">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1476,10 +1602,10 @@
       <c r="B15" s="47">
         <v>5</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="58" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="20" t="s">
@@ -1496,7 +1622,7 @@
         <v>71</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K15" s="42">
         <v>2</v>
@@ -1508,7 +1634,7 @@
     <row r="16" spans="1:14" ht="12.75">
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
-      <c r="C16" s="56"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="52"/>
       <c r="E16" s="20" t="s">
         <v>32</v>
@@ -1527,7 +1653,7 @@
     <row r="17" spans="1:14" ht="12.75">
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
-      <c r="C17" s="56"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="52"/>
       <c r="E17" s="20" t="s">
         <v>33</v>
@@ -1546,7 +1672,7 @@
     <row r="18" spans="1:14" ht="12.75">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
-      <c r="C18" s="56"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="52"/>
       <c r="E18" s="20" t="s">
         <v>34</v>
@@ -1562,7 +1688,7 @@
         <v>70</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K18" s="42">
         <v>1</v>
@@ -1574,7 +1700,7 @@
     <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
-      <c r="C19" s="56"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="52"/>
       <c r="E19" s="20" t="s">
         <v>35</v>
@@ -1593,7 +1719,7 @@
     <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
-      <c r="C20" s="56"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="52"/>
       <c r="E20" s="20" t="s">
         <v>36</v>
@@ -1612,7 +1738,7 @@
     <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
-      <c r="C21" s="56"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="52"/>
       <c r="E21" s="20" t="s">
         <v>37</v>
@@ -1628,7 +1754,7 @@
         <v>70</v>
       </c>
       <c r="J21" s="36">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K21" s="42">
         <v>1</v>
@@ -1640,7 +1766,7 @@
     <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
-      <c r="C22" s="56"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="52"/>
       <c r="E22" s="20" t="s">
         <v>38</v>
@@ -1659,7 +1785,7 @@
     <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
-      <c r="C23" s="56"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="52"/>
       <c r="E23" s="20" t="s">
         <v>39</v>
@@ -1672,10 +1798,10 @@
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="37" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K23" s="42">
         <v>4</v>
@@ -1687,7 +1813,7 @@
     <row r="24" spans="1:14" ht="12.75">
       <c r="A24" s="48"/>
       <c r="B24" s="48"/>
-      <c r="C24" s="56"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="52"/>
       <c r="E24" s="20" t="s">
         <v>40</v>
@@ -1703,7 +1829,7 @@
         <v>70</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K24" s="42">
         <v>2</v>
@@ -1715,8 +1841,8 @@
     <row r="25" spans="1:14" ht="12.75">
       <c r="A25" s="48"/>
       <c r="B25" s="48"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="60" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="58" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="20" t="s">
@@ -1736,7 +1862,7 @@
     <row r="26" spans="1:14" ht="12.75">
       <c r="A26" s="48"/>
       <c r="B26" s="48"/>
-      <c r="C26" s="56"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="52"/>
       <c r="E26" s="20" t="s">
         <v>43</v>
@@ -1752,7 +1878,7 @@
         <v>71</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K26" s="42">
         <v>1</v>
@@ -1764,7 +1890,7 @@
     <row r="27" spans="1:14" ht="12.75">
       <c r="A27" s="48"/>
       <c r="B27" s="48"/>
-      <c r="C27" s="56"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="52"/>
       <c r="E27" s="20" t="s">
         <v>44</v>
@@ -1783,7 +1909,7 @@
     <row r="28" spans="1:14" ht="12.75">
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
-      <c r="C28" s="56"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="52"/>
       <c r="E28" s="20" t="s">
         <v>45</v>
@@ -1796,10 +1922,10 @@
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="36">
-        <v>210</v>
+        <v>95</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="K28" s="42">
         <v>1</v>
@@ -1811,7 +1937,7 @@
     <row r="29" spans="1:14" ht="12.75">
       <c r="A29" s="48"/>
       <c r="B29" s="48"/>
-      <c r="C29" s="56"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="52"/>
       <c r="E29" s="20" t="s">
         <v>46</v>
@@ -1827,7 +1953,7 @@
         <v>71</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K29" s="42">
         <v>1</v>
@@ -1839,7 +1965,7 @@
     <row r="30" spans="1:14" ht="12.75">
       <c r="A30" s="48"/>
       <c r="B30" s="48"/>
-      <c r="C30" s="56"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="52"/>
       <c r="E30" s="20" t="s">
         <v>47</v>
@@ -1855,7 +1981,7 @@
         <v>71</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="K30" s="42">
         <v>1</v>
@@ -1867,7 +1993,7 @@
     <row r="31" spans="1:14" ht="12.75">
       <c r="A31" s="48"/>
       <c r="B31" s="48"/>
-      <c r="C31" s="56"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="52"/>
       <c r="E31" s="20" t="s">
         <v>48</v>
@@ -1880,24 +2006,22 @@
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="36">
-        <v>122</v>
-      </c>
-      <c r="K31" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>91</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J31" s="44">
+        <v>80</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="39"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" ht="30.75" customHeight="1">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
-      <c r="C32" s="56"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="52"/>
       <c r="E32" s="32" t="s">
         <v>49</v>
@@ -1913,7 +2037,7 @@
         <v>71</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K32" s="42">
         <v>4</v>
@@ -1925,7 +2049,7 @@
     <row r="33" spans="1:14" ht="12.75">
       <c r="A33" s="48"/>
       <c r="B33" s="48"/>
-      <c r="C33" s="56"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="52"/>
       <c r="E33" s="20" t="s">
         <v>50</v>
@@ -1941,7 +2065,7 @@
         <v>71</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K33" s="42">
         <v>1</v>
@@ -1953,7 +2077,7 @@
     <row r="34" spans="1:14" ht="12.75">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
-      <c r="C34" s="56"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="52"/>
       <c r="E34" s="39" t="s">
         <v>51</v>
@@ -1969,7 +2093,7 @@
         <v>71</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -1978,7 +2102,7 @@
     <row r="35" spans="1:14" ht="12.75">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
-      <c r="C35" s="56"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="52"/>
       <c r="E35" s="20" t="s">
         <v>52</v>
@@ -1997,7 +2121,7 @@
     <row r="36" spans="1:14" ht="12.75">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
-      <c r="C36" s="56"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="52"/>
       <c r="E36" s="20" t="s">
         <v>53</v>
@@ -2013,7 +2137,7 @@
         <v>71</v>
       </c>
       <c r="J36" s="36">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K36" s="42">
         <v>2</v>
@@ -2025,7 +2149,7 @@
     <row r="37" spans="1:14" ht="12.75">
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
-      <c r="C37" s="56"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="52"/>
       <c r="E37" s="20" t="s">
         <v>54</v>
@@ -2044,7 +2168,7 @@
     <row r="38" spans="1:14" ht="12.75">
       <c r="A38" s="48"/>
       <c r="B38" s="48"/>
-      <c r="C38" s="56"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="52"/>
       <c r="E38" s="20" t="s">
         <v>55</v>
@@ -2060,7 +2184,7 @@
         <v>71</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K38" s="42">
         <v>1</v>
@@ -2072,7 +2196,7 @@
     <row r="39" spans="1:14" ht="12.75">
       <c r="A39" s="48"/>
       <c r="B39" s="48"/>
-      <c r="C39" s="56"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="52"/>
       <c r="E39" s="20" t="s">
         <v>56</v>
@@ -2088,7 +2212,7 @@
         <v>71</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K39" s="42">
         <v>2</v>
@@ -2100,7 +2224,7 @@
     <row r="40" spans="1:14" ht="12.75">
       <c r="A40" s="48"/>
       <c r="B40" s="48"/>
-      <c r="C40" s="56"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="52"/>
       <c r="E40" s="39" t="s">
         <v>67</v>
@@ -2117,8 +2241,8 @@
     <row r="41" spans="1:14" ht="12.75">
       <c r="A41" s="48"/>
       <c r="B41" s="48"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="60" t="s">
+      <c r="C41" s="60"/>
+      <c r="D41" s="58" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="20" t="s">
@@ -2135,21 +2259,19 @@
         <v>71</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>91</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L41" s="39"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
     <row r="42" spans="1:14" ht="12.75">
       <c r="A42" s="48"/>
       <c r="B42" s="48"/>
-      <c r="C42" s="56"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="52"/>
       <c r="E42" s="20" t="s">
         <v>59</v>
@@ -2164,19 +2286,20 @@
       <c r="I42" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="36">
-        <v>252</v>
-      </c>
-      <c r="L42" s="39" t="s">
-        <v>91</v>
-      </c>
+      <c r="J42" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="39"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
     <row r="43" spans="1:14" ht="12.75">
       <c r="A43" s="48"/>
       <c r="B43" s="48"/>
-      <c r="C43" s="56"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="52"/>
       <c r="E43" s="20" t="s">
         <v>60</v>
@@ -2195,7 +2318,7 @@
     <row r="44" spans="1:14" ht="12.75">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
-      <c r="C44" s="56"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="52"/>
       <c r="E44" s="20" t="s">
         <v>61</v>
@@ -2211,7 +2334,7 @@
         <v>71</v>
       </c>
       <c r="J44" s="36" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K44" s="42">
         <v>2</v>
@@ -2223,7 +2346,7 @@
     <row r="45" spans="1:14" ht="12.75">
       <c r="A45" s="48"/>
       <c r="B45" s="48"/>
-      <c r="C45" s="56"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="52"/>
       <c r="E45" s="20" t="s">
         <v>62</v>
@@ -2239,7 +2362,7 @@
         <v>71</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="K45" s="42">
         <v>2</v>
@@ -2251,7 +2374,7 @@
     <row r="46" spans="1:14" ht="12.75">
       <c r="A46" s="48"/>
       <c r="B46" s="48"/>
-      <c r="C46" s="56"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="52"/>
       <c r="E46" s="20" t="s">
         <v>63</v>
@@ -2267,7 +2390,7 @@
         <v>71</v>
       </c>
       <c r="J46" s="36">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K46" s="42">
         <v>2</v>
@@ -2279,7 +2402,7 @@
     <row r="47" spans="1:14" ht="12.75">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
-      <c r="C47" s="56"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="52"/>
       <c r="E47" s="20" t="s">
         <v>64</v>
@@ -2298,7 +2421,7 @@
     <row r="48" spans="1:14" ht="12.75" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
-      <c r="C48" s="56"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="52"/>
       <c r="E48" s="20" t="s">
         <v>65</v>
@@ -2309,7 +2432,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="41"/>
       <c r="I48" s="37"/>
-      <c r="J48" s="57"/>
+      <c r="J48" s="55"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -2317,7 +2440,7 @@
     <row r="49" spans="1:14" ht="12.75">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
-      <c r="C49" s="56"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="52"/>
       <c r="E49" s="20" t="s">
         <v>66</v>
@@ -2328,7 +2451,7 @@
       <c r="G49" s="10"/>
       <c r="H49" s="28"/>
       <c r="I49" s="31"/>
-      <c r="J49" s="58"/>
+      <c r="J49" s="56"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -2336,7 +2459,7 @@
     <row r="50" spans="1:14" ht="12.75">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
-      <c r="C50" s="56"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="52"/>
       <c r="E50" s="20" t="s">
         <v>67</v>
@@ -2345,7 +2468,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="28"/>
       <c r="I50" s="31"/>
-      <c r="J50" s="59"/>
+      <c r="J50" s="57"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -2361,18 +2484,26 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="22"/>
+      <c r="K51" s="61" t="s">
+        <v>94</v>
+      </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="K52" s="61"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="K51:K52"/>
     <mergeCell ref="J48:J50"/>
     <mergeCell ref="D15:D24"/>
     <mergeCell ref="D25:D40"/>
     <mergeCell ref="D41:D50"/>
     <mergeCell ref="A14:A50"/>
     <mergeCell ref="B15:B50"/>
+    <mergeCell ref="C15:C50"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="C2:D2"/>
@@ -2383,7 +2514,6 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C15:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
